--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Inhba-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Inhba-Acvr2a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Inhba</t>
+  </si>
+  <si>
+    <t>Acvr2a</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Inhba</t>
-  </si>
-  <si>
-    <t>Acvr2a</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.251116</v>
+        <v>3.739612</v>
       </c>
       <c r="H2">
-        <v>0.753348</v>
+        <v>11.218836</v>
       </c>
       <c r="I2">
-        <v>0.02499663796234737</v>
+        <v>0.9192540781997663</v>
       </c>
       <c r="J2">
-        <v>0.03089608058175258</v>
+        <v>0.9192540781997663</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.10301133333333</v>
+        <v>9.24193</v>
       </c>
       <c r="N2">
-        <v>39.309034</v>
+        <v>27.72579</v>
       </c>
       <c r="O2">
-        <v>0.2036753411238415</v>
+        <v>0.1468938537243544</v>
       </c>
       <c r="P2">
-        <v>0.2126567538160977</v>
+        <v>0.1569651396557324</v>
       </c>
       <c r="Q2">
-        <v>3.290375793981333</v>
+        <v>34.56123233116</v>
       </c>
       <c r="R2">
-        <v>29.613382145832</v>
+        <v>311.05109098044</v>
       </c>
       <c r="S2">
-        <v>0.005091198763930266</v>
+        <v>0.1350327740985927</v>
       </c>
       <c r="T2">
-        <v>0.006570260202156075</v>
+        <v>0.1442908447637279</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.251116</v>
+        <v>3.739612</v>
       </c>
       <c r="H3">
-        <v>0.753348</v>
+        <v>11.218836</v>
       </c>
       <c r="I3">
-        <v>0.02499663796234737</v>
+        <v>0.9192540781997663</v>
       </c>
       <c r="J3">
-        <v>0.03089608058175258</v>
+        <v>0.9192540781997663</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>88.626007</v>
       </c>
       <c r="O3">
-        <v>0.4592056932299319</v>
+        <v>0.469548954544906</v>
       </c>
       <c r="P3">
-        <v>0.479455154057023</v>
+        <v>0.5017420086455576</v>
       </c>
       <c r="Q3">
-        <v>7.418469457937333</v>
+        <v>110.4756264297613</v>
       </c>
       <c r="R3">
-        <v>66.76622512143601</v>
+        <v>994.280637867852</v>
       </c>
       <c r="S3">
-        <v>0.01147859846391736</v>
+        <v>0.4316347913798416</v>
       </c>
       <c r="T3">
-        <v>0.01481328507508238</v>
+        <v>0.4612283876515713</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.251116</v>
+        <v>3.739612</v>
       </c>
       <c r="H4">
-        <v>0.753348</v>
+        <v>11.218836</v>
       </c>
       <c r="I4">
-        <v>0.02499663796234737</v>
+        <v>0.9192540781997663</v>
       </c>
       <c r="J4">
-        <v>0.03089608058175258</v>
+        <v>0.9192540781997663</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.915846333333334</v>
+        <v>7.349831333333333</v>
       </c>
       <c r="N4">
-        <v>17.747539</v>
+        <v>22.049494</v>
       </c>
       <c r="O4">
-        <v>0.09195687840951981</v>
+        <v>0.1168203014713749</v>
       </c>
       <c r="P4">
-        <v>0.09601187431786275</v>
+        <v>0.1248296948454213</v>
       </c>
       <c r="Q4">
-        <v>1.485563667841333</v>
+        <v>27.48551745210933</v>
       </c>
       <c r="R4">
-        <v>13.370073010572</v>
+        <v>247.369657068984</v>
       </c>
       <c r="S4">
-        <v>0.002298612797750364</v>
+        <v>0.1073875385440875</v>
       </c>
       <c r="T4">
-        <v>0.002966390605729788</v>
+        <v>0.1147502060670859</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.251116</v>
+        <v>3.739612</v>
       </c>
       <c r="H5">
-        <v>0.753348</v>
+        <v>11.218836</v>
       </c>
       <c r="I5">
-        <v>0.02499663796234737</v>
+        <v>0.9192540781997663</v>
       </c>
       <c r="J5">
-        <v>0.03089608058175258</v>
+        <v>0.9192540781997663</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.1511595</v>
+        <v>12.1104985</v>
       </c>
       <c r="N5">
-        <v>16.302319</v>
+        <v>24.220997</v>
       </c>
       <c r="O5">
-        <v>0.1267029501450487</v>
+        <v>0.1924876941491673</v>
       </c>
       <c r="P5">
-        <v>0.08819342236226138</v>
+        <v>0.1371233128688515</v>
       </c>
       <c r="Q5">
-        <v>2.046886569002</v>
+        <v>45.28856551658199</v>
       </c>
       <c r="R5">
-        <v>12.281319414012</v>
+        <v>271.731393099492</v>
       </c>
       <c r="S5">
-        <v>0.00316714777353713</v>
+        <v>0.1769450978498913</v>
       </c>
       <c r="T5">
-        <v>0.002724831084084967</v>
+        <v>0.1260511645709542</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.251116</v>
+        <v>3.739612</v>
       </c>
       <c r="H6">
-        <v>0.753348</v>
+        <v>11.218836</v>
       </c>
       <c r="I6">
-        <v>0.02499663796234737</v>
+        <v>0.9192540781997663</v>
       </c>
       <c r="J6">
-        <v>0.03089608058175258</v>
+        <v>0.9192540781997663</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.620811666666666</v>
+        <v>4.671440333333334</v>
       </c>
       <c r="N6">
-        <v>22.862435</v>
+        <v>14.014321</v>
       </c>
       <c r="O6">
-        <v>0.1184591370916582</v>
+        <v>0.07424919611019735</v>
       </c>
       <c r="P6">
-        <v>0.123682795446755</v>
+        <v>0.079339843984437</v>
       </c>
       <c r="Q6">
-        <v>1.913707742486666</v>
+        <v>17.46937432781733</v>
       </c>
       <c r="R6">
-        <v>17.22336968238</v>
+        <v>157.224368950356</v>
       </c>
       <c r="S6">
-        <v>0.002961080163212254</v>
+        <v>0.06825387632735315</v>
       </c>
       <c r="T6">
-        <v>0.003821313614699362</v>
+        <v>0.07293347514642691</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,31 +835,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>3.739612</v>
+        <v>0.244494</v>
       </c>
       <c r="H7">
-        <v>11.218836</v>
+        <v>0.733482</v>
       </c>
       <c r="I7">
-        <v>0.3722491887559923</v>
+        <v>0.06010038116130061</v>
       </c>
       <c r="J7">
-        <v>0.4601035127052395</v>
+        <v>0.0601003811613006</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.10301133333333</v>
+        <v>9.24193</v>
       </c>
       <c r="N7">
-        <v>39.309034</v>
+        <v>27.72579</v>
       </c>
       <c r="O7">
-        <v>0.2036753411238415</v>
+        <v>0.1468938537243544</v>
       </c>
       <c r="P7">
-        <v>0.2126567538160977</v>
+        <v>0.1569651396557324</v>
       </c>
       <c r="Q7">
-        <v>49.00017841826933</v>
+        <v>2.25959643342</v>
       </c>
       <c r="R7">
-        <v>441.001605764424</v>
+        <v>20.33636790078</v>
       </c>
       <c r="S7">
-        <v>0.07581798050294999</v>
+        <v>0.008828376599086038</v>
       </c>
       <c r="T7">
-        <v>0.09784411943127991</v>
+        <v>0.009433664722346297</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,31 +897,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>3.739612</v>
+        <v>0.244494</v>
       </c>
       <c r="H8">
-        <v>11.218836</v>
+        <v>0.733482</v>
       </c>
       <c r="I8">
-        <v>0.3722491887559923</v>
+        <v>0.06010038116130061</v>
       </c>
       <c r="J8">
-        <v>0.4601035127052395</v>
+        <v>0.0601003811613006</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>88.626007</v>
       </c>
       <c r="O8">
-        <v>0.4592056932299319</v>
+        <v>0.469548954544906</v>
       </c>
       <c r="P8">
-        <v>0.479455154057023</v>
+        <v>0.5017420086455576</v>
       </c>
       <c r="Q8">
-        <v>110.4756264297613</v>
+        <v>7.222842318485999</v>
       </c>
       <c r="R8">
-        <v>994.280637867852</v>
+        <v>65.005580866374</v>
       </c>
       <c r="S8">
-        <v>0.1709389467769752</v>
+        <v>0.02822007114203906</v>
       </c>
       <c r="T8">
-        <v>0.220599000566268</v>
+        <v>0.03015488596423459</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,31 +959,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>3.739612</v>
+        <v>0.244494</v>
       </c>
       <c r="H9">
-        <v>11.218836</v>
+        <v>0.733482</v>
       </c>
       <c r="I9">
-        <v>0.3722491887559923</v>
+        <v>0.06010038116130061</v>
       </c>
       <c r="J9">
-        <v>0.4601035127052395</v>
+        <v>0.0601003811613006</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.915846333333334</v>
+        <v>7.349831333333333</v>
       </c>
       <c r="N9">
-        <v>17.747539</v>
+        <v>22.049494</v>
       </c>
       <c r="O9">
-        <v>0.09195687840951981</v>
+        <v>0.1168203014713749</v>
       </c>
       <c r="P9">
-        <v>0.09601187431786275</v>
+        <v>0.1248296948454213</v>
       </c>
       <c r="Q9">
-        <v>22.12296993828933</v>
+        <v>1.796989662012</v>
       </c>
       <c r="R9">
-        <v>199.106729444604</v>
+        <v>16.172906958108</v>
       </c>
       <c r="S9">
-        <v>0.03423087338847718</v>
+        <v>0.007020944645807675</v>
       </c>
       <c r="T9">
-        <v>0.04417540063506262</v>
+        <v>0.00750231224045866</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,31 +1021,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
       </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>3.739612</v>
+        <v>0.244494</v>
       </c>
       <c r="H10">
-        <v>11.218836</v>
+        <v>0.733482</v>
       </c>
       <c r="I10">
-        <v>0.3722491887559923</v>
+        <v>0.06010038116130061</v>
       </c>
       <c r="J10">
-        <v>0.4601035127052395</v>
+        <v>0.0601003811613006</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.1511595</v>
+        <v>12.1104985</v>
       </c>
       <c r="N10">
-        <v>16.302319</v>
+        <v>24.220997</v>
       </c>
       <c r="O10">
-        <v>0.1267029501450487</v>
+        <v>0.1924876941491673</v>
       </c>
       <c r="P10">
-        <v>0.08819342236226138</v>
+        <v>0.1371233128688515</v>
       </c>
       <c r="Q10">
-        <v>30.482173880114</v>
+        <v>2.960944220259</v>
       </c>
       <c r="R10">
-        <v>182.893043280684</v>
+        <v>17.765665321554</v>
       </c>
       <c r="S10">
-        <v>0.04716507040448531</v>
+        <v>0.01156858378722481</v>
       </c>
       <c r="T10">
-        <v>0.04057810342637328</v>
+        <v>0.008241163369518252</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,31 +1083,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>3.739612</v>
+        <v>0.244494</v>
       </c>
       <c r="H11">
-        <v>11.218836</v>
+        <v>0.733482</v>
       </c>
       <c r="I11">
-        <v>0.3722491887559923</v>
+        <v>0.06010038116130061</v>
       </c>
       <c r="J11">
-        <v>0.4601035127052395</v>
+        <v>0.0601003811613006</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.620811666666666</v>
+        <v>4.671440333333334</v>
       </c>
       <c r="N11">
-        <v>22.862435</v>
+        <v>14.014321</v>
       </c>
       <c r="O11">
-        <v>0.1184591370916582</v>
+        <v>0.07424919611019735</v>
       </c>
       <c r="P11">
-        <v>0.123682795446755</v>
+        <v>0.079339843984437</v>
       </c>
       <c r="Q11">
-        <v>28.49887875840666</v>
+        <v>1.142139132858</v>
       </c>
       <c r="R11">
-        <v>256.4899088256599</v>
+        <v>10.279252195722</v>
       </c>
       <c r="S11">
-        <v>0.04409631768310464</v>
+        <v>0.004462404987143019</v>
       </c>
       <c r="T11">
-        <v>0.05690688864625557</v>
+        <v>0.004768354864742786</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,13 +1145,13 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1160,16 +1160,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.04240566666666667</v>
+        <v>0.08398800000000001</v>
       </c>
       <c r="H12">
-        <v>0.127217</v>
+        <v>0.251964</v>
       </c>
       <c r="I12">
-        <v>0.004221153161163162</v>
+        <v>0.02064554063893313</v>
       </c>
       <c r="J12">
-        <v>0.005217385170424316</v>
+        <v>0.02064554063893313</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.10301133333333</v>
+        <v>9.24193</v>
       </c>
       <c r="N12">
-        <v>39.309034</v>
+        <v>27.72579</v>
       </c>
       <c r="O12">
-        <v>0.2036753411238415</v>
+        <v>0.1468938537243544</v>
       </c>
       <c r="P12">
-        <v>0.2126567538160977</v>
+        <v>0.1569651396557324</v>
       </c>
       <c r="Q12">
-        <v>0.5556419309308889</v>
+        <v>0.7762112168400001</v>
       </c>
       <c r="R12">
-        <v>5.000777378377999</v>
+        <v>6.985900951560001</v>
       </c>
       <c r="S12">
-        <v>0.0008597448100358888</v>
+        <v>0.003032703026675657</v>
       </c>
       <c r="T12">
-        <v>0.001109512193750683</v>
+        <v>0.003240630169658237</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,13 +1207,13 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1222,16 +1222,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.04240566666666667</v>
+        <v>0.08398800000000001</v>
       </c>
       <c r="H13">
-        <v>0.127217</v>
+        <v>0.251964</v>
       </c>
       <c r="I13">
-        <v>0.004221153161163162</v>
+        <v>0.02064554063893313</v>
       </c>
       <c r="J13">
-        <v>0.005217385170424316</v>
+        <v>0.02064554063893313</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>88.626007</v>
       </c>
       <c r="O13">
-        <v>0.4592056932299319</v>
+        <v>0.469548954544906</v>
       </c>
       <c r="P13">
-        <v>0.479455154057023</v>
+        <v>0.5017420086455576</v>
       </c>
       <c r="Q13">
-        <v>1.252748303613222</v>
+        <v>2.481173691972</v>
       </c>
       <c r="R13">
-        <v>11.274734732519</v>
+        <v>22.330563227748</v>
       </c>
       <c r="S13">
-        <v>0.001938377563601648</v>
+        <v>0.00969409202302542</v>
       </c>
       <c r="T13">
-        <v>0.002501502210660618</v>
+        <v>0.0103587350297518</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,13 +1269,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1284,16 +1284,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.04240566666666667</v>
+        <v>0.08398800000000001</v>
       </c>
       <c r="H14">
-        <v>0.127217</v>
+        <v>0.251964</v>
       </c>
       <c r="I14">
-        <v>0.004221153161163162</v>
+        <v>0.02064554063893313</v>
       </c>
       <c r="J14">
-        <v>0.005217385170424316</v>
+        <v>0.02064554063893313</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.915846333333334</v>
+        <v>7.349831333333333</v>
       </c>
       <c r="N14">
-        <v>17.747539</v>
+        <v>22.049494</v>
       </c>
       <c r="O14">
-        <v>0.09195687840951981</v>
+        <v>0.1168203014713749</v>
       </c>
       <c r="P14">
-        <v>0.09601187431786275</v>
+        <v>0.1248296948454213</v>
       </c>
       <c r="Q14">
-        <v>0.2508654076625556</v>
+        <v>0.6172976340240001</v>
       </c>
       <c r="R14">
-        <v>2.257788668963</v>
+        <v>5.555678706216001</v>
       </c>
       <c r="S14">
-        <v>0.0003881640679890411</v>
+        <v>0.002411818281479689</v>
       </c>
       <c r="T14">
-        <v>0.0005009309292506604</v>
+        <v>0.002577176537876766</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,13 +1331,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
         <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1346,16 +1346,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.04240566666666667</v>
+        <v>0.08398800000000001</v>
       </c>
       <c r="H15">
-        <v>0.127217</v>
+        <v>0.251964</v>
       </c>
       <c r="I15">
-        <v>0.004221153161163162</v>
+        <v>0.02064554063893313</v>
       </c>
       <c r="J15">
-        <v>0.005217385170424316</v>
+        <v>0.02064554063893313</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.1511595</v>
+        <v>12.1104985</v>
       </c>
       <c r="N15">
-        <v>16.302319</v>
+        <v>24.220997</v>
       </c>
       <c r="O15">
-        <v>0.1267029501450487</v>
+        <v>0.1924876941491673</v>
       </c>
       <c r="P15">
-        <v>0.08819342236226138</v>
+        <v>0.1371233128688515</v>
       </c>
       <c r="Q15">
-        <v>0.3456553527038334</v>
+        <v>1.017136548018</v>
       </c>
       <c r="R15">
-        <v>2.073932116223</v>
+        <v>6.102819288108</v>
       </c>
       <c r="S15">
-        <v>0.0005348325585334707</v>
+        <v>0.003974012512051163</v>
       </c>
       <c r="T15">
-        <v>0.0004601390539618308</v>
+        <v>0.002830984928379016</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,13 +1393,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1408,16 +1408,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.04240566666666667</v>
+        <v>0.08398800000000001</v>
       </c>
       <c r="H16">
-        <v>0.127217</v>
+        <v>0.251964</v>
       </c>
       <c r="I16">
-        <v>0.004221153161163162</v>
+        <v>0.02064554063893313</v>
       </c>
       <c r="J16">
-        <v>0.005217385170424316</v>
+        <v>0.02064554063893313</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,648 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.620811666666666</v>
+        <v>4.671440333333334</v>
       </c>
       <c r="N16">
-        <v>22.862435</v>
+        <v>14.014321</v>
       </c>
       <c r="O16">
-        <v>0.1184591370916582</v>
+        <v>0.07424919611019735</v>
       </c>
       <c r="P16">
-        <v>0.123682795446755</v>
+        <v>0.079339843984437</v>
       </c>
       <c r="Q16">
-        <v>0.3231655992661111</v>
+        <v>0.3923449307160001</v>
       </c>
       <c r="R16">
-        <v>2.908490393395</v>
+        <v>3.531104376444</v>
       </c>
       <c r="S16">
-        <v>0.0005000341610031133</v>
+        <v>0.001532914795701195</v>
       </c>
       <c r="T16">
-        <v>0.0006453007828005235</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>5.754686</v>
-      </c>
-      <c r="H17">
-        <v>11.509372</v>
-      </c>
-      <c r="I17">
-        <v>0.572834078788245</v>
-      </c>
-      <c r="J17">
-        <v>0.4720188873632993</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>13.10301133333333</v>
-      </c>
-      <c r="N17">
-        <v>39.309034</v>
-      </c>
-      <c r="O17">
-        <v>0.2036753411238415</v>
-      </c>
-      <c r="P17">
-        <v>0.2126567538160977</v>
-      </c>
-      <c r="Q17">
-        <v>75.40371587777466</v>
-      </c>
-      <c r="R17">
-        <v>452.422295266648</v>
-      </c>
-      <c r="S17">
-        <v>0.1166721764045573</v>
-      </c>
-      <c r="T17">
-        <v>0.1003780043265655</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>5.754686</v>
-      </c>
-      <c r="H18">
-        <v>11.509372</v>
-      </c>
-      <c r="I18">
-        <v>0.572834078788245</v>
-      </c>
-      <c r="J18">
-        <v>0.4720188873632993</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>29.54200233333333</v>
-      </c>
-      <c r="N18">
-        <v>88.626007</v>
-      </c>
-      <c r="O18">
-        <v>0.4592056932299319</v>
-      </c>
-      <c r="P18">
-        <v>0.479455154057023</v>
-      </c>
-      <c r="Q18">
-        <v>170.0049472396007</v>
-      </c>
-      <c r="R18">
-        <v>1020.029683437604</v>
-      </c>
-      <c r="S18">
-        <v>0.2630486702556855</v>
-      </c>
-      <c r="T18">
-        <v>0.2263118883585953</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>5.754686</v>
-      </c>
-      <c r="H19">
-        <v>11.509372</v>
-      </c>
-      <c r="I19">
-        <v>0.572834078788245</v>
-      </c>
-      <c r="J19">
-        <v>0.4720188873632993</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>5.915846333333334</v>
-      </c>
-      <c r="N19">
-        <v>17.747539</v>
-      </c>
-      <c r="O19">
-        <v>0.09195687840951981</v>
-      </c>
-      <c r="P19">
-        <v>0.09601187431786275</v>
-      </c>
-      <c r="Q19">
-        <v>34.04383807258466</v>
-      </c>
-      <c r="R19">
-        <v>204.263028435508</v>
-      </c>
-      <c r="S19">
-        <v>0.05267603373195993</v>
-      </c>
-      <c r="T19">
-        <v>0.0453194180891825</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>5.754686</v>
-      </c>
-      <c r="H20">
-        <v>11.509372</v>
-      </c>
-      <c r="I20">
-        <v>0.572834078788245</v>
-      </c>
-      <c r="J20">
-        <v>0.4720188873632993</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>8.1511595</v>
-      </c>
-      <c r="N20">
-        <v>16.302319</v>
-      </c>
-      <c r="O20">
-        <v>0.1267029501450487</v>
-      </c>
-      <c r="P20">
-        <v>0.08819342236226138</v>
-      </c>
-      <c r="Q20">
-        <v>46.907363458417</v>
-      </c>
-      <c r="R20">
-        <v>187.629453833668</v>
-      </c>
-      <c r="S20">
-        <v>0.07257976772609188</v>
-      </c>
-      <c r="T20">
-        <v>0.04162896109619613</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>5.754686</v>
-      </c>
-      <c r="H21">
-        <v>11.509372</v>
-      </c>
-      <c r="I21">
-        <v>0.572834078788245</v>
-      </c>
-      <c r="J21">
-        <v>0.4720188873632993</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>7.620811666666666</v>
-      </c>
-      <c r="N21">
-        <v>22.862435</v>
-      </c>
-      <c r="O21">
-        <v>0.1184591370916582</v>
-      </c>
-      <c r="P21">
-        <v>0.123682795446755</v>
-      </c>
-      <c r="Q21">
-        <v>43.85537820680332</v>
-      </c>
-      <c r="R21">
-        <v>263.1322692408199</v>
-      </c>
-      <c r="S21">
-        <v>0.06785743066995044</v>
-      </c>
-      <c r="T21">
-        <v>0.05838061549275982</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.2581713333333334</v>
-      </c>
-      <c r="H22">
-        <v>0.774514</v>
-      </c>
-      <c r="I22">
-        <v>0.02569894133225218</v>
-      </c>
-      <c r="J22">
-        <v>0.03176413417928436</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>13.10301133333333</v>
-      </c>
-      <c r="N22">
-        <v>39.309034</v>
-      </c>
-      <c r="O22">
-        <v>0.2036753411238415</v>
-      </c>
-      <c r="P22">
-        <v>0.2126567538160977</v>
-      </c>
-      <c r="Q22">
-        <v>3.382821906608445</v>
-      </c>
-      <c r="R22">
-        <v>30.445397159476</v>
-      </c>
-      <c r="S22">
-        <v>0.005234240642368051</v>
-      </c>
-      <c r="T22">
-        <v>0.006754857662345571</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.2581713333333334</v>
-      </c>
-      <c r="H23">
-        <v>0.774514</v>
-      </c>
-      <c r="I23">
-        <v>0.02569894133225218</v>
-      </c>
-      <c r="J23">
-        <v>0.03176413417928436</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>29.54200233333333</v>
-      </c>
-      <c r="N23">
-        <v>88.626007</v>
-      </c>
-      <c r="O23">
-        <v>0.4592056932299319</v>
-      </c>
-      <c r="P23">
-        <v>0.479455154057023</v>
-      </c>
-      <c r="Q23">
-        <v>7.626898131733112</v>
-      </c>
-      <c r="R23">
-        <v>68.64208318559801</v>
-      </c>
-      <c r="S23">
-        <v>0.01180110016975221</v>
-      </c>
-      <c r="T23">
-        <v>0.01522947784641674</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.2581713333333334</v>
-      </c>
-      <c r="H24">
-        <v>0.774514</v>
-      </c>
-      <c r="I24">
-        <v>0.02569894133225218</v>
-      </c>
-      <c r="J24">
-        <v>0.03176413417928436</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>5.915846333333334</v>
-      </c>
-      <c r="N24">
-        <v>17.747539</v>
-      </c>
-      <c r="O24">
-        <v>0.09195687840951981</v>
-      </c>
-      <c r="P24">
-        <v>0.09601187431786275</v>
-      </c>
-      <c r="Q24">
-        <v>1.527301935671778</v>
-      </c>
-      <c r="R24">
-        <v>13.745717421046</v>
-      </c>
-      <c r="S24">
-        <v>0.002363194423343297</v>
-      </c>
-      <c r="T24">
-        <v>0.003049734058637179</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.2581713333333334</v>
-      </c>
-      <c r="H25">
-        <v>0.774514</v>
-      </c>
-      <c r="I25">
-        <v>0.02569894133225218</v>
-      </c>
-      <c r="J25">
-        <v>0.03176413417928436</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>8.1511595</v>
-      </c>
-      <c r="N25">
-        <v>16.302319</v>
-      </c>
-      <c r="O25">
-        <v>0.1267029501450487</v>
-      </c>
-      <c r="P25">
-        <v>0.08819342236226138</v>
-      </c>
-      <c r="Q25">
-        <v>2.104395716327667</v>
-      </c>
-      <c r="R25">
-        <v>12.626374297966</v>
-      </c>
-      <c r="S25">
-        <v>0.003256131682400878</v>
-      </c>
-      <c r="T25">
-        <v>0.002801387701645169</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.2581713333333334</v>
-      </c>
-      <c r="H26">
-        <v>0.774514</v>
-      </c>
-      <c r="I26">
-        <v>0.02569894133225218</v>
-      </c>
-      <c r="J26">
-        <v>0.03176413417928436</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>7.620811666666666</v>
-      </c>
-      <c r="N26">
-        <v>22.862435</v>
-      </c>
-      <c r="O26">
-        <v>0.1184591370916582</v>
-      </c>
-      <c r="P26">
-        <v>0.123682795446755</v>
-      </c>
-      <c r="Q26">
-        <v>1.967475109065556</v>
-      </c>
-      <c r="R26">
-        <v>17.70727598159</v>
-      </c>
-      <c r="S26">
-        <v>0.003044274414387741</v>
-      </c>
-      <c r="T26">
-        <v>0.003928676910239706</v>
+        <v>0.001638013973267308</v>
       </c>
     </row>
   </sheetData>
